--- a/swertres/results_filter_gap_excel_4_5.xlsx
+++ b/swertres/results_filter_gap_excel_4_5.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00762847"/>
+        <fgColor rgb="00769586"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,112 +369,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -482,43 +482,43 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -526,40 +526,40 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>4</v>
@@ -567,76 +567,76 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>3</v>
@@ -644,98 +644,98 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>1</v>
@@ -743,46 +743,46 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -790,106 +790,106 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>9</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -914,26 +914,26 @@
         <v>7</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -955,95 +955,95 @@
         <v>5</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>7</v>
@@ -1051,54 +1051,54 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>1</v>
+      <c r="A65" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>0</v>
@@ -1106,43 +1106,43 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4</v>
@@ -1150,21 +1150,21 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>5</v>
@@ -1172,79 +1172,79 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>8</v>
+      <c r="A77" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1252,40 +1252,40 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>8</v>
+      <c r="A83" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>3</v>
@@ -1293,54 +1293,54 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>4</v>
@@ -1348,123 +1348,123 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>2</v>
+      <c r="A95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
